--- a/NhapHangV2.API/Template/OrderTemplate.xlsx
+++ b/NhapHangV2.API/Template/OrderTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC65C6-D03C-47AF-A81B-A78F815D6A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93C1CC-40EE-4290-8CCF-A005E1F33D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{02581432-CE5D-467D-A091-258165F70FF4}"/>
   </bookViews>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +171,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296884AD-3D9A-4F74-9AEA-01060D414BBE}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -500,12 +506,12 @@
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="6" customWidth="1"/>
     <col min="9" max="9" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.77734375" style="1"/>
@@ -527,22 +533,22 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -568,22 +574,22 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
